--- a/results/[1_reference]_#_inv_cost.xlsx
+++ b/results/[1_reference]_#_inv_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10522.6655561871</v>
+        <v>10584.5234</v>
       </c>
       <c r="B2" t="n">
-        <v>5076.495620930308</v>
+        <v>2199.785428011348</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>130562.4731657534</v>
+        <v>133530.396394537</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712662081</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>199836.2688324001</v>
+        <v>192800.1512841276</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>183081.44584818</v>
+        <v>197697.80047248</v>
       </c>
       <c r="M2" t="n">
-        <v>62175.91780157999</v>
+        <v>61893.07227245998</v>
       </c>
       <c r="N2" t="n">
-        <v>58857.50792331652</v>
+        <v>58880.56082384131</v>
       </c>
       <c r="O2" t="n">
-        <v>35962.62513703931</v>
+        <v>36073.5392825317</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46443.51212010173</v>
+        <v>44507.44746876459</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>286164.1083104399</v>
+        <v>288106.7952418633</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>141991.5214042781</v>
+        <v>134880.6965784706</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>767752.3378851652</v>
+        <v>780707.161392082</v>
       </c>
       <c r="M2" t="n">
-        <v>188956.7656032815</v>
+        <v>188788.328952058</v>
       </c>
       <c r="N2" t="n">
-        <v>126434.595901519</v>
+        <v>127722.8651085954</v>
       </c>
       <c r="O2" t="n">
-        <v>55480.39817668247</v>
+        <v>57355.46797973744</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54435.57781454005</v>
+        <v>54684.5820057779</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>592470.8617094349</v>
+        <v>594291.2938040108</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>600875.0747496679</v>
+        <v>575434.1627650401</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>605205.4286943765</v>
+        <v>650631.8824846881</v>
       </c>
       <c r="M2" t="n">
-        <v>377130.4891031699</v>
+        <v>379217.4304396501</v>
       </c>
       <c r="N2" t="n">
-        <v>100349.0176024306</v>
+        <v>99965.89453763465</v>
       </c>
       <c r="O2" t="n">
-        <v>169606.133754674</v>
+        <v>171839.4692743387</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_cost.xlsx
+++ b/results/[1_reference]_#_inv_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10584.5234</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2199.785428011348</v>
+        <v>9064.015633300272</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>133530.396394537</v>
+        <v>23114.1806051135</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661834</v>
+        <v>12143.88856899275</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>192800.1512841276</v>
+        <v>51856.62951455999</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>197697.80047248</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>61893.07227245998</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>58880.56082384131</v>
+        <v>8162.670248152207</v>
       </c>
       <c r="O2" t="n">
-        <v>36073.5392825317</v>
+        <v>12103.9598975121</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>44507.44746876459</v>
+        <v>6794.473007685274</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15129.75820914074</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>288106.7952418633</v>
+        <v>64447.80433120584</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>134880.6965784706</v>
+        <v>96650.97486679791</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>780707.161392082</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>188788.328952058</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>127722.8651085954</v>
+        <v>13869.23146919471</v>
       </c>
       <c r="O2" t="n">
-        <v>57355.46797973744</v>
+        <v>11702.01983856686</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54684.5820057779</v>
+        <v>8850.598356357281</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>23430.21916234464</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>594291.2938040108</v>
+        <v>96928.5825258494</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>575434.1627650401</v>
+        <v>143329.1971486044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>650631.8824846881</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>379217.4304396501</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>99965.89453763465</v>
+        <v>25217.17353999086</v>
       </c>
       <c r="O2" t="n">
-        <v>171839.4692743387</v>
+        <v>19174.53054577044</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1235.461171605062</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>3879.890732167435</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1020.236817535124</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_cost.xlsx
+++ b/results/[1_reference]_#_inv_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10522.6655561871</v>
+        <v>10522.66555618711</v>
       </c>
       <c r="B2" t="n">
-        <v>5076.495620930308</v>
+        <v>5076.495620934856</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>130562.4731657534</v>
+        <v>130562.4731657494</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712662081</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>62175.91780157999</v>
       </c>
       <c r="N2" t="n">
-        <v>58857.50792331652</v>
+        <v>58857.50792331713</v>
       </c>
       <c r="O2" t="n">
-        <v>35962.62513703931</v>
+        <v>35962.62513703923</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46443.51212010173</v>
+        <v>46443.51212010016</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>286164.1083104399</v>
+        <v>286164.108310445</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>141991.5214042781</v>
+        <v>141991.5214042782</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>188956.7656032815</v>
       </c>
       <c r="N2" t="n">
-        <v>126434.595901519</v>
+        <v>126434.5959015181</v>
       </c>
       <c r="O2" t="n">
-        <v>55480.39817668247</v>
+        <v>55480.39817668263</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54435.57781454005</v>
+        <v>54435.57781454387</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>592470.8617094349</v>
+        <v>592470.8617094334</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>600875.0747496679</v>
+        <v>600875.0747496678</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>377130.4891031699</v>
       </c>
       <c r="N2" t="n">
-        <v>100349.0176024306</v>
+        <v>100349.0176024267</v>
       </c>
       <c r="O2" t="n">
-        <v>169606.133754674</v>
+        <v>169606.1337546738</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_cost.xlsx
+++ b/results/[1_reference]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9064.015633300272</v>
+        <v>10372.65132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23114.1806051135</v>
+        <v>289260.5393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12143.88856899275</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>51856.62951455999</v>
+        <v>161710.6685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>484922.2142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>105953.7713982</v>
       </c>
       <c r="N2" t="n">
-        <v>8162.670248152207</v>
+        <v>70003.73489578845</v>
       </c>
       <c r="O2" t="n">
-        <v>12103.9598975121</v>
+        <v>69744.89343456978</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6794.473007685274</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15129.75820914074</v>
+        <v>31203.23858116339</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>64447.80433120584</v>
+        <v>170658.5511254234</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>96650.97486679791</v>
+        <v>209080.6134235085</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>63518.11613148725</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>68536.72857011756</v>
       </c>
       <c r="N2" t="n">
-        <v>13869.23146919471</v>
+        <v>19285.19160463996</v>
       </c>
       <c r="O2" t="n">
-        <v>11702.01983856686</v>
+        <v>27033.1386905727</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8850.598356357281</v>
+        <v>27543.1755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>23430.21916234464</v>
+        <v>22113.21643273498</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>96928.5825258494</v>
+        <v>114655.4402706629</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>143329.1971486044</v>
+        <v>153866.0861464091</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>44638.22942194272</v>
       </c>
       <c r="N2" t="n">
-        <v>25217.17353999086</v>
+        <v>39676.88529639924</v>
       </c>
       <c r="O2" t="n">
-        <v>19174.53054577044</v>
+        <v>31311.04369977792</v>
       </c>
     </row>
   </sheetData>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1142.580190039942</v>
       </c>
       <c r="O2" t="n">
-        <v>1235.461171605062</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3879.890732167435</v>
+        <v>29588.33508286276</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4347.543515635315</v>
       </c>
       <c r="O2" t="n">
-        <v>1020.236817535124</v>
+        <v>20429.76977394434</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_cost.xlsx
+++ b/results/[1_reference]_#_inv_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10522.66555618711</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5076.495620934856</v>
+        <v>2900.628494009815</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>130562.4731657494</v>
+        <v>290490.7128553875</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661834</v>
+        <v>80959.25712662027</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>199836.2688324001</v>
+        <v>149400.2916486277</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>183081.44584818</v>
+        <v>509988.6069102</v>
       </c>
       <c r="M2" t="n">
-        <v>62175.91780157999</v>
+        <v>112287.0813999</v>
       </c>
       <c r="N2" t="n">
-        <v>58857.50792331713</v>
+        <v>71616.34392528518</v>
       </c>
       <c r="O2" t="n">
-        <v>35962.62513703923</v>
+        <v>66892.99684219938</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46443.51212010016</v>
+        <v>2196.192975232897</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>35136.73892605079</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>286164.108310445</v>
+        <v>164484.7698465803</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>141991.5214042782</v>
+        <v>163495.0434248286</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>767752.3378851652</v>
+        <v>90560.81452240903</v>
       </c>
       <c r="M2" t="n">
-        <v>188956.7656032815</v>
+        <v>61433.01601085002</v>
       </c>
       <c r="N2" t="n">
-        <v>126434.5959015181</v>
+        <v>19369.80145215898</v>
       </c>
       <c r="O2" t="n">
-        <v>55480.39817668263</v>
+        <v>11605.37107884132</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54435.57781454387</v>
+        <v>19330.22900254441</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>19563.7184570525</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>592470.8617094334</v>
+        <v>120007.9673231517</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>600875.0747496678</v>
+        <v>169978.4631260868</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>605205.4286943765</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>377130.4891031699</v>
+        <v>59658.32640091502</v>
       </c>
       <c r="N2" t="n">
-        <v>100349.0176024267</v>
+        <v>44280.58435347585</v>
       </c>
       <c r="O2" t="n">
-        <v>169606.1337546738</v>
+        <v>51870.42293643098</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_cost.xlsx
+++ b/results/[1_reference]_#_inv_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,55 +461,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -517,10 +507,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10522.66555618711</v>
+        <v>43201.52408422565</v>
       </c>
       <c r="B2" t="n">
-        <v>5076.495620934856</v>
+        <v>670738.5894978809</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>130562.4731657494</v>
+        <v>98541.58125184696</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661834</v>
+        <v>25342.77928792126</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>199836.2688324001</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +540,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>183081.44584818</v>
+        <v>20932.58885946757</v>
       </c>
       <c r="M2" t="n">
-        <v>62175.91780157999</v>
-      </c>
-      <c r="N2" t="n">
-        <v>58857.50792331713</v>
-      </c>
-      <c r="O2" t="n">
-        <v>35962.62513703923</v>
+        <v>19940.13531829329</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,55 +588,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -660,10 +634,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46443.51212010016</v>
+        <v>77327.71910258384</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1447722.100593386</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>286164.108310445</v>
+        <v>66109.87038066969</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>48766.68152149498</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>141991.5214042782</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +667,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>767752.3378851652</v>
+        <v>59475.74168066389</v>
       </c>
       <c r="M2" t="n">
-        <v>188956.7656032815</v>
-      </c>
-      <c r="N2" t="n">
-        <v>126434.5959015181</v>
-      </c>
-      <c r="O2" t="n">
-        <v>55480.39817668263</v>
+        <v>37387.51309567104</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,55 +715,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -803,10 +761,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54435.57781454387</v>
+        <v>201561.9053416893</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>992192.1349526661</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>592470.8617094334</v>
+        <v>7414.038593858086</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>41828.1809570527</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>600875.0747496678</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +794,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>605205.4286943765</v>
+        <v>74836.7916399628</v>
       </c>
       <c r="M2" t="n">
-        <v>377130.4891031699</v>
-      </c>
-      <c r="N2" t="n">
-        <v>100349.0176024267</v>
-      </c>
-      <c r="O2" t="n">
-        <v>169606.1337546738</v>
+        <v>39123.60766563525</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -890,55 +842,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -982,12 +924,6 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1002,7 +938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,55 +969,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1125,12 +1051,6 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1145,7 +1065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,55 +1096,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1268,12 +1178,6 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[1_reference]_#_inv_cost.xlsx
+++ b/results/[1_reference]_#_inv_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,55 +461,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -517,10 +507,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>39384.34305843788</v>
       </c>
       <c r="B2" t="n">
-        <v>9064.015633300272</v>
+        <v>664808.5919970301</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23114.1806051135</v>
+        <v>106856.3911138124</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12143.88856899275</v>
+        <v>25342.77928792158</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>51856.62951455999</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +540,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>20541.59681659201</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8162.670248152207</v>
-      </c>
-      <c r="O2" t="n">
-        <v>12103.9598975121</v>
+        <v>19940.13531829303</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,55 +588,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -660,10 +634,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6794.473007685274</v>
+        <v>76693.51572896753</v>
       </c>
       <c r="B2" t="n">
-        <v>15129.75820914074</v>
+        <v>1469620.838620507</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>64447.80433120584</v>
+        <v>58044.50481456321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>48766.68152149468</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>96650.97486679791</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +667,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>58909.6824199376</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>13869.23146919471</v>
-      </c>
-      <c r="O2" t="n">
-        <v>11702.01983856686</v>
+        <v>37387.51309567128</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,55 +715,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -803,10 +761,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8850.598356357281</v>
+        <v>169854.3815116933</v>
       </c>
       <c r="B2" t="n">
-        <v>23430.21916234464</v>
+        <v>1028135.523307525</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>96928.5825258494</v>
+        <v>40159.13291435583</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>41828.18095705006</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>143329.1971486044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +794,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>79713.19216830072</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>25217.17353999086</v>
-      </c>
-      <c r="O2" t="n">
-        <v>19174.53054577044</v>
+        <v>39123.60766563773</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -890,55 +842,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -983,12 +925,6 @@
       </c>
       <c r="M2" t="n">
         <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1235.461171605062</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,55 +969,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1089,7 +1015,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3879.890732167435</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1126,12 +1052,6 @@
       </c>
       <c r="M2" t="n">
         <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1020.236817535124</v>
       </c>
     </row>
   </sheetData>
@@ -1145,7 +1065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,55 +1096,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1268,12 +1178,6 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[1_reference]_#_inv_cost.xlsx
+++ b/results/[1_reference]_#_inv_cost.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,60 +446,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -507,29 +517,29 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43201.52408422565</v>
+        <v>1890.080070514287</v>
       </c>
       <c r="B2" t="n">
-        <v>670738.5894978809</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>345719.1593949074</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98541.58125184696</v>
+        <v>6952028.899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8660.90703915558</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>25342.77928792126</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -540,10 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20932.58885946757</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>19940.13531829329</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2177733.023524837</v>
+      </c>
+      <c r="O2" t="n">
+        <v>19940.13531829328</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,60 +589,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -634,29 +660,29 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>77327.71910258384</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1447722.100593386</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1137781.417810569</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>66109.87038066969</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>48766.68152149498</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -667,10 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59475.74168066389</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37387.51309567104</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>145134.9212950327</v>
+      </c>
+      <c r="O2" t="n">
+        <v>37387.51309567103</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,60 +732,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -761,28 +803,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>201561.9053416893</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>992192.1349526661</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1069579.92809175</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7414.038593858086</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>134890.3917970602</v>
       </c>
       <c r="G2" t="n">
-        <v>41828.1809570527</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41828.18095705016</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -794,10 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74836.7916399628</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>39123.60766563525</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15512.32660566806</v>
+      </c>
+      <c r="O2" t="n">
+        <v>39123.60766563762</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,60 +875,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -924,6 +982,12 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2250.347895687557</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -938,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,60 +1018,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1051,6 +1125,12 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1065,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,60 +1161,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1178,6 +1268,12 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[1_reference]_#_inv_cost.xlsx
+++ b/results/[1_reference]_#_inv_cost.xlsx
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1890.080070514287</v>
+        <v>919.5165582021581</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>345719.1593949074</v>
+        <v>230094.2264245811</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>6952028.899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>8660.90703915558</v>
+        <v>61127.02378435232</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>25342.77928792126</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>51188.91412691405</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2177733.023524837</v>
+        <v>646622.8493351394</v>
       </c>
       <c r="O2" t="n">
-        <v>19940.13531829328</v>
+        <v>112530.5632222843</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1137781.417810569</v>
+        <v>1366587.801425742</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>78063.54928825128</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>48766.68152149498</v>
+        <v>28088.50240832827</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145134.9212950327</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>37387.51309567103</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>106466.7478454597</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1069579.92809175</v>
+        <v>1096506.42735958</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>134890.3917970602</v>
+        <v>23585.70652137621</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41828.18095705016</v>
+        <v>65789.15950834841</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15512.32660566806</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39123.60766563762</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2250.347895687557</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>

--- a/results/[1_reference]_#_inv_cost.xlsx
+++ b/results/[1_reference]_#_inv_cost.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,60 +446,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -507,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39384.34305843788</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>664808.5919970301</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>222489.6157305166</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>106856.3911138124</v>
+        <v>6952028.899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>65601.72332187693</v>
       </c>
       <c r="G2" t="n">
-        <v>25342.77928792158</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>50331.58209140529</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -540,10 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20541.59681659201</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>19940.13531829303</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>648607.0876758237</v>
+      </c>
+      <c r="O2" t="n">
+        <v>110494.3541404276</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,60 +589,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -634,28 +660,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>76693.51572896753</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1469620.838620507</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1352352.43587376</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>58044.50481456321</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>83962.81250698201</v>
       </c>
       <c r="G2" t="n">
-        <v>48766.68152149468</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>28981.72057777255</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -667,10 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>58909.6824199376</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37387.51309567128</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,60 +732,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -761,28 +803,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>169854.3815116933</v>
+        <v>82561.53154123483</v>
       </c>
       <c r="B2" t="n">
-        <v>1028135.523307525</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1179735.942385038</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>40159.13291435583</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13662.67717712691</v>
       </c>
       <c r="G2" t="n">
-        <v>41828.18095705006</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>66815.20021227101</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -794,10 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79713.19216830072</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>39123.60766563773</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,60 +875,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -924,6 +982,12 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -938,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,60 +1018,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1051,6 +1125,12 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1065,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,60 +1161,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1178,6 +1268,12 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[1_reference]_#_inv_cost.xlsx
+++ b/results/[1_reference]_#_inv_cost.xlsx
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>919.5165582021581</v>
+        <v>39078.39467348947</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>230094.2264245811</v>
+        <v>209583.0797648664</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>6952028.899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>61127.02378435232</v>
+        <v>95769.17678077516</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25342.77928792126</v>
       </c>
       <c r="I2" t="n">
-        <v>51188.91412691405</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>646622.8493351394</v>
+        <v>24919.19881589823</v>
       </c>
       <c r="O2" t="n">
-        <v>112530.5632222843</v>
+        <v>19940.13531829328</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>37796.40353646359</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1366587.801425742</v>
+        <v>1450232.225626721</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>78063.54928825128</v>
+        <v>68799.10271760933</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>28088.50240832827</v>
+        <v>48766.68152149498</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>61570.98999765134</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>37387.51309567105</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>106466.7478454597</v>
+        <v>193358.3648624498</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1096506.42735958</v>
+        <v>992637.4967465391</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23585.70652137621</v>
+        <v>8362.15815392175</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>65789.15950834841</v>
+        <v>41828.18095705016</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>52817.85337146366</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>39123.60766563758</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_cost.xlsx
+++ b/results/[1_reference]_#_inv_cost.xlsx
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>34342.30276161566</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>222489.6157305166</v>
+        <v>202966.1332037171</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>6952028.899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>65601.72332187693</v>
+        <v>104581.4894156114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25342.7792879215</v>
       </c>
       <c r="I2" t="n">
-        <v>50331.58209140529</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>648607.0876758237</v>
+        <v>26516.66321651384</v>
       </c>
       <c r="O2" t="n">
-        <v>110494.3541404276</v>
+        <v>19940.13531829309</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>27148.91927230698</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1352352.43587376</v>
+        <v>1472599.056349339</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>83962.81250698201</v>
+        <v>60251.15946181817</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>28981.72057777255</v>
+        <v>48766.68152149476</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>65827.33743550844</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>37387.51309567123</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>82561.53154123483</v>
+        <v>172007.6410165265</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1179735.942385038</v>
+        <v>1029712.730901895</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13662.67717712691</v>
+        <v>37254.24314761105</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>66815.20021227101</v>
+        <v>41828.1809570509</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>51926.61360924502</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>39123.60766563698</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_cost.xlsx
+++ b/results/[1_reference]_#_inv_cost.xlsx
@@ -517,22 +517,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39078.39467348947</v>
+        <v>39031.81680257917</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>209583.0797648664</v>
+        <v>480246.8820317771</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6952028.899878451</v>
+        <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>95769.17678077516</v>
+        <v>95787.21511093997</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24919.19881589823</v>
+        <v>24790.01698851405</v>
       </c>
       <c r="O2" t="n">
         <v>19940.13531829328</v>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37796.40353646359</v>
+        <v>38474.22754243403</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1450232.225626721</v>
+        <v>1449739.865999208</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>68799.10271760933</v>
+        <v>68781.60553734947</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>61570.98999765134</v>
+        <v>61595.36923039754</v>
       </c>
       <c r="O2" t="n">
-        <v>37387.51309567105</v>
+        <v>37387.51309567106</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>193358.3648624498</v>
+        <v>192739.0887555323</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>992637.4967465391</v>
+        <v>993010.8231553335</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8362.15815392175</v>
+        <v>8362.158153921873</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41828.18095705016</v>
+        <v>41828.18095705046</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>52817.85337146366</v>
+        <v>52911.02090087621</v>
       </c>
       <c r="O2" t="n">
-        <v>39123.60766563758</v>
+        <v>39123.6076656373</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_cost.xlsx
+++ b/results/[1_reference]_#_inv_cost.xlsx
@@ -517,28 +517,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34342.30276161566</v>
+        <v>34576.32876604809</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>202966.1332037171</v>
+        <v>473512.2198540746</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6952028.899878451</v>
+        <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>104581.4894156114</v>
+        <v>104652.8316756397</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>25342.7792879215</v>
+        <v>25342.77928792128</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26516.66321651384</v>
+        <v>26102.41392686156</v>
       </c>
       <c r="O2" t="n">
-        <v>19940.13531829309</v>
+        <v>19940.13531829326</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27148.91927230698</v>
+        <v>28285.41792192322</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1472599.056349339</v>
+        <v>1472612.59332239</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>60251.15946181817</v>
+        <v>60181.95746959069</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>48766.68152149476</v>
+        <v>48766.68152149497</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>65827.33743550844</v>
+        <v>65612.45139665413</v>
       </c>
       <c r="O2" t="n">
-        <v>37387.51309567123</v>
+        <v>37387.51309567106</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>172007.6410165265</v>
+        <v>170669.6712526473</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41828.1809570509</v>
+        <v>41828.18095705094</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>51926.61360924502</v>
+        <v>52503.01421726761</v>
       </c>
       <c r="O2" t="n">
-        <v>39123.60766563698</v>
+        <v>39123.60766563696</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_cost.xlsx
+++ b/results/[1_reference]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2900.628494009815</v>
+        <v>2778.902526399997</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>290490.7128553875</v>
+        <v>290927.2506141524</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712662027</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>149400.2916486277</v>
+        <v>148652.5872276</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>509988.6069102</v>
+        <v>509125.9821312751</v>
       </c>
       <c r="M2" t="n">
-        <v>112287.0813999</v>
+        <v>112470.9127927</v>
       </c>
       <c r="N2" t="n">
-        <v>71616.34392528518</v>
+        <v>71977.22211760026</v>
       </c>
       <c r="O2" t="n">
-        <v>66892.99684219938</v>
+        <v>68708.80120585456</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2196.192975232897</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>35136.73892605079</v>
+        <v>52443.38413002542</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>164484.7698465803</v>
+        <v>269427.8185625125</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>163495.0434248286</v>
+        <v>226515.4616545431</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>90560.81452240903</v>
+        <v>216244.0719986508</v>
       </c>
       <c r="M2" t="n">
-        <v>61433.01601085002</v>
+        <v>105684.9748647551</v>
       </c>
       <c r="N2" t="n">
-        <v>19369.80145215898</v>
+        <v>35977.50527378646</v>
       </c>
       <c r="O2" t="n">
-        <v>11605.37107884132</v>
+        <v>25179.37288612182</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19330.22900254441</v>
+        <v>22664.8797166071</v>
       </c>
       <c r="B2" t="n">
-        <v>19563.7184570525</v>
+        <v>15375.40221492003</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>120007.9673231517</v>
+        <v>110456.9732286501</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>169978.4631260868</v>
+        <v>162836.6223031954</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>59658.32640091502</v>
+        <v>58634.61533225987</v>
       </c>
       <c r="N2" t="n">
-        <v>44280.58435347585</v>
+        <v>49759.46314991158</v>
       </c>
       <c r="O2" t="n">
-        <v>51870.42293643098</v>
+        <v>58375.08308716356</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_cost.xlsx
+++ b/results/[1_reference]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10372.65132737054</v>
+        <v>9739.537847600008</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>289260.5393052954</v>
+        <v>289823.7596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161710.6685703679</v>
+        <v>161752.8135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>484922.2142001599</v>
+        <v>485245.29503538</v>
       </c>
       <c r="M2" t="n">
-        <v>105953.7713982</v>
+        <v>105905.87968015</v>
       </c>
       <c r="N2" t="n">
-        <v>70003.73489578845</v>
+        <v>70831.955579581</v>
       </c>
       <c r="O2" t="n">
-        <v>69744.89343456978</v>
+        <v>69610.4422391004</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>31203.23858116339</v>
+        <v>47386.06393082884</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>170658.5511254234</v>
+        <v>271236.7992183856</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>209080.6134235085</v>
+        <v>280426.171173861</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63518.11613148725</v>
+        <v>184420.4799505123</v>
       </c>
       <c r="M2" t="n">
-        <v>68536.72857011756</v>
+        <v>113936.92264746</v>
       </c>
       <c r="N2" t="n">
-        <v>19285.19160463996</v>
+        <v>33931.8246116005</v>
       </c>
       <c r="O2" t="n">
-        <v>27033.1386905727</v>
+        <v>50485.47232467777</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27543.1755456332</v>
+        <v>28619.61401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>22113.21643273498</v>
+        <v>23143.29485244409</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>114655.4402706629</v>
+        <v>111916.8406725409</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>153866.0861464091</v>
+        <v>150385.2728707001</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>44638.22942194272</v>
+        <v>34803.41203795493</v>
       </c>
       <c r="N2" t="n">
-        <v>39676.88529639924</v>
+        <v>44938.11408779013</v>
       </c>
       <c r="O2" t="n">
-        <v>31311.04369977792</v>
+        <v>26938.31306104351</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1142.580190039942</v>
+        <v>1014.766490779938</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29588.33508286276</v>
+        <v>34409.11717595647</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4347.543515635315</v>
+        <v>5182.698656944208</v>
       </c>
       <c r="O2" t="n">
-        <v>20429.76977394434</v>
+        <v>22972.54525065906</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_cost.xlsx
+++ b/results/[1_reference]_#_inv_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24790.01698851405</v>
+        <v>24790.01698851409</v>
       </c>
       <c r="O2" t="n">
         <v>19940.13531829328</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>61595.36923039754</v>
+        <v>61595.36923039737</v>
       </c>
       <c r="O2" t="n">
         <v>37387.51309567106</v>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>192739.0887555323</v>
+        <v>192739.0887555455</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>993010.8231553335</v>
+        <v>993010.8231553301</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8362.158153921873</v>
+        <v>8362.158153905802</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41828.18095705046</v>
+        <v>41828.18095705398</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>52911.02090087621</v>
+        <v>52911.02090087179</v>
       </c>
       <c r="O2" t="n">
-        <v>39123.6076656373</v>
+        <v>39123.60766563409</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_cost.xlsx
+++ b/results/[1_reference]_#_inv_cost.xlsx
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34576.32876604809</v>
+        <v>34576.32876604806</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>473512.2198540746</v>
+        <v>473467.5218859861</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,13 +532,13 @@
         <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>104652.8316756397</v>
+        <v>104672.020657225</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>25342.77928792128</v>
+        <v>25342.7792879215</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26102.41392686156</v>
+        <v>25780.61504590484</v>
       </c>
       <c r="O2" t="n">
-        <v>19940.13531829326</v>
+        <v>19940.13531829309</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28285.41792192322</v>
+        <v>28115.596991665</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1472612.59332239</v>
+        <v>1473169.246758097</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>60181.95746959069</v>
+        <v>60163.34415745302</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>48766.68152149497</v>
+        <v>48766.68152149476</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>65612.45139665413</v>
+        <v>71275.42581982065</v>
       </c>
       <c r="O2" t="n">
-        <v>37387.51309567106</v>
+        <v>37387.51309567123</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>170669.6712526473</v>
+        <v>170807.0348617603</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1029712.730901895</v>
+        <v>1029725.643138789</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37254.24314761105</v>
+        <v>37769.8176933708</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41828.18095705094</v>
+        <v>41828.18095705425</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>52503.01421726761</v>
+        <v>49297.9687380765</v>
       </c>
       <c r="O2" t="n">
-        <v>39123.60766563696</v>
+        <v>39123.60766563383</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_cost.xlsx
+++ b/results/[1_reference]_#_inv_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34576.32876604806</v>
+        <v>39063.99109145206</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>473467.5218859861</v>
+        <v>483537.6274462014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,13 +532,13 @@
         <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>104672.020657225</v>
+        <v>94331.34471502228</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>25342.7792879215</v>
+        <v>25342.77928792104</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>25780.61504590484</v>
+        <v>23638.06126801545</v>
       </c>
       <c r="O2" t="n">
-        <v>19940.13531829309</v>
+        <v>19940.13531829346</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28115.596991665</v>
+        <v>30846.52922536713</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1473169.246758097</v>
+        <v>1495599.874611417</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>60163.34415745302</v>
+        <v>70193.79982138964</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>48766.68152149476</v>
+        <v>56602.42752520426</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>71275.42581982065</v>
+        <v>51649.16401227913</v>
       </c>
       <c r="O2" t="n">
-        <v>37387.51309567123</v>
+        <v>42574.77934331147</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>170807.0348617603</v>
+        <v>242452.4252219552</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1029725.643138789</v>
+        <v>943335.270081223</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37769.8176933708</v>
+        <v>1425.925979620855</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41828.18095705425</v>
+        <v>39373.98526588717</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>49297.9687380765</v>
+        <v>53308.16490721726</v>
       </c>
       <c r="O2" t="n">
-        <v>39123.60766563383</v>
+        <v>30023.09380555204</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>11578.49752443177</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>76705.58894163162</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1930.947398408091</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>28147.3462746636</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8312.661449003012</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_cost.xlsx
+++ b/results/[1_reference]_#_inv_cost.xlsx
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39031.81680257917</v>
+        <v>39031.81680257922</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>480246.8820317771</v>
+        <v>480246.882031777</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>95787.21511093997</v>
+        <v>95787.21511094004</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24790.01698851409</v>
+        <v>24790.01698851406</v>
       </c>
       <c r="O2" t="n">
-        <v>19940.13531829328</v>
+        <v>19940.13531829329</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>38474.22754243403</v>
+        <v>38474.22754243398</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>68781.60553734947</v>
+        <v>68781.6055373494</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>61595.36923039737</v>
+        <v>61595.36923039639</v>
       </c>
       <c r="O2" t="n">
-        <v>37387.51309567106</v>
+        <v>37387.51309567103</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>192739.0887555455</v>
+        <v>192739.088755552</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>993010.8231553301</v>
+        <v>993010.8231553291</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8362.158153905802</v>
+        <v>8362.158153897921</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41828.18095705398</v>
+        <v>41828.18095705066</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>52911.02090087179</v>
+        <v>52911.02090087096</v>
       </c>
       <c r="O2" t="n">
-        <v>39123.60766563409</v>
+        <v>39123.60766563714</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_cost.xlsx
+++ b/results/[1_reference]_#_inv_cost.xlsx
@@ -556,7 +556,7 @@
         <v>112470.9127927</v>
       </c>
       <c r="N2" t="n">
-        <v>71977.22211760026</v>
+        <v>71977.22211760029</v>
       </c>
       <c r="O2" t="n">
         <v>68708.80120585456</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>226515.4616545431</v>
+        <v>226515.4616545432</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>105684.9748647551</v>
       </c>
       <c r="N2" t="n">
-        <v>35977.50527378646</v>
+        <v>35977.50527378639</v>
       </c>
       <c r="O2" t="n">
-        <v>25179.37288612182</v>
+        <v>25179.37288612174</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22664.8797166071</v>
+        <v>22664.87971660762</v>
       </c>
       <c r="B2" t="n">
         <v>15375.40221492003</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162836.6223031954</v>
+        <v>162836.6223031942</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>58634.61533225987</v>
       </c>
       <c r="N2" t="n">
-        <v>49759.46314991158</v>
+        <v>49759.46314991117</v>
       </c>
       <c r="O2" t="n">
-        <v>58375.08308716356</v>
+        <v>58375.08308716459</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_reference]_#_inv_cost.xlsx
+++ b/results/[1_reference]_#_inv_cost.xlsx
@@ -556,10 +556,10 @@
         <v>105905.87968015</v>
       </c>
       <c r="N2" t="n">
-        <v>70831.955579581</v>
+        <v>70831.95557958097</v>
       </c>
       <c r="O2" t="n">
-        <v>69610.4422391004</v>
+        <v>69610.44223910036</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>47386.06393082884</v>
+        <v>47338.61932520662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>280426.171173861</v>
+        <v>283167.7766510943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>184420.4799505123</v>
+        <v>178095.3756971828</v>
       </c>
       <c r="M2" t="n">
-        <v>113936.92264746</v>
+        <v>114008.3253427963</v>
       </c>
       <c r="N2" t="n">
-        <v>33931.8246116005</v>
+        <v>33931.82461160053</v>
       </c>
       <c r="O2" t="n">
-        <v>50485.47232467777</v>
+        <v>50657.26889981552</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28619.61401238371</v>
+        <v>29273.60317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>23143.29485244409</v>
+        <v>22330.72247668595</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>111916.8406725409</v>
+        <v>110739.3594843864</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>150385.2728707001</v>
+        <v>150386.9441391908</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>34803.41203795493</v>
+        <v>35556.98862372932</v>
       </c>
       <c r="N2" t="n">
-        <v>44938.11408779013</v>
+        <v>44813.41193308897</v>
       </c>
       <c r="O2" t="n">
-        <v>26938.31306104351</v>
+        <v>26775.55841092002</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.766490779938</v>
+        <v>1041.156112142704</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34409.11717595647</v>
+        <v>34256.25291363284</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5182.698656944208</v>
+        <v>5271.89502409355</v>
       </c>
       <c r="O2" t="n">
-        <v>22972.54525065906</v>
+        <v>22972.54525065989</v>
       </c>
     </row>
   </sheetData>
